--- a/.idea/Routine.xlsx
+++ b/.idea/Routine.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Courses" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Serial</t>
   </si>
@@ -106,19 +106,16 @@
     <t>Thursday</t>
   </si>
   <si>
-    <t>8:30am-11:30am;2:00pm-5:00pm</t>
-  </si>
-  <si>
-    <t>9:00am-12:0pm;2:00pm-5:00pm</t>
-  </si>
-  <si>
-    <t>8:30am-1:00pm;2:00pm-5:00pm</t>
-  </si>
-  <si>
-    <t>8:30am-1:00pm</t>
-  </si>
-  <si>
-    <t>2:00pm-5:00pm</t>
+    <t>8.30-11.30;14.00-17.00</t>
+  </si>
+  <si>
+    <t>9.00-12.00;14.00-17.00</t>
+  </si>
+  <si>
+    <t>14.00-17.00</t>
+  </si>
+  <si>
+    <t>8.30-13.00</t>
   </si>
 </sst>
 </file>
@@ -559,7 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:G1"/>
     </sheetView>
   </sheetViews>
@@ -635,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection sqref="A1:G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -694,19 +691,19 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/.idea/Routine.xlsx
+++ b/.idea/Routine.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Courses" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Serial</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>Teacher</t>
-  </si>
-  <si>
-    <t>Saturday</t>
   </si>
   <si>
     <t>Sunday</t>
@@ -630,23 +627,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="8.26953125" customWidth="1"/>
-    <col min="3" max="3" width="29.6328125" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" customWidth="1"/>
-    <col min="5" max="5" width="30.81640625" customWidth="1"/>
-    <col min="6" max="6" width="30.26953125" customWidth="1"/>
-    <col min="7" max="7" width="30.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.6328125" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" customWidth="1"/>
+    <col min="5" max="5" width="30.26953125" customWidth="1"/>
+    <col min="6" max="6" width="30.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -665,45 +661,42 @@
       <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
+      <c r="D2" t="s">
+        <v>25</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
       </c>
       <c r="F2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
         <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/.idea/Routine.xlsx
+++ b/.idea/Routine.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Courses" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Serial</t>
   </si>
@@ -67,9 +67,6 @@
     <t>AI</t>
   </si>
   <si>
-    <t>CSE 3203</t>
-  </si>
-  <si>
     <t>CSE 1211 Section 1</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>MMR</t>
   </si>
   <si>
-    <t>CSE 1201</t>
-  </si>
-  <si>
     <t>CSE 1211 Section 2</t>
   </si>
   <si>
@@ -106,13 +100,16 @@
     <t>8.30-11.30;14.00-17.00</t>
   </si>
   <si>
-    <t>9.00-12.00;14.00-17.00</t>
-  </si>
-  <si>
     <t>14.00-17.00</t>
   </si>
   <si>
     <t>8.30-13.00</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>10.00-11.30;14.00-17.00</t>
   </si>
 </sst>
 </file>
@@ -436,7 +433,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -554,7 +551,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:G1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -594,30 +591,30 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -629,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -644,22 +641,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -667,36 +664,39 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
       <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/.idea/Routine.xlsx
+++ b/.idea/Routine.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
   </bookViews>
   <sheets>
     <sheet name="Courses" sheetId="1" r:id="rId1"/>
-    <sheet name="Teachers" sheetId="2" r:id="rId2"/>
-    <sheet name="TeacherFreeSlot" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Teachers" sheetId="2" r:id="rId3"/>
+    <sheet name="TeacherFreeSlot" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -430,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -474,72 +475,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>1.5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -547,6 +482,87 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -622,12 +638,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/.idea/Routine.xlsx
+++ b/.idea/Routine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>Serial</t>
   </si>
@@ -41,9 +41,6 @@
     <t>CSE-1101</t>
   </si>
   <si>
-    <t>CSE-1102</t>
-  </si>
-  <si>
     <t>EEE-1103</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
   </si>
   <si>
     <t>AI</t>
-  </si>
-  <si>
-    <t>CSE 1211 Section 1</t>
   </si>
   <si>
     <t>CSE 1211 Section 3</t>
@@ -431,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -473,6 +467,28 @@
       </c>
       <c r="C3">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -486,7 +502,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -496,7 +512,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1">
         <v>3</v>
@@ -507,7 +523,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -518,7 +534,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -529,7 +545,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>1.5</v>
@@ -540,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>1.5</v>
@@ -551,7 +567,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>1.5</v>
@@ -567,21 +583,21 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" customWidth="1"/>
     <col min="2" max="2" width="10.90625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="19.26953125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="5" max="5" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2">
         <v>1</v>
@@ -604,33 +620,33 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -657,62 +673,62 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/.idea/Routine.xlsx
+++ b/.idea/Routine.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Courses" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
   <si>
     <t>Serial</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>10.00-11.30;14.00-17.00</t>
+  </si>
+  <si>
+    <t>MJ</t>
+  </si>
+  <si>
+    <t>SMT</t>
   </si>
 </sst>
 </file>
@@ -427,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -580,10 +586,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -649,6 +655,28 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -656,10 +684,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -731,6 +759,46 @@
         <v>22</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
